--- a/(I'm like a dog chasing cars)/2.RobertMartin&MicahMartin/SistemaDeCobros/2do parcial POO_APCC (Corrección).xlsx
+++ b/(I'm like a dog chasing cars)/2.RobertMartin&MicahMartin/SistemaDeCobros/2do parcial POO_APCC (Corrección).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP3\(I'm like a dog chasing cars)\2.RobertMartin&amp;MicahMartin\SistemaDeCobros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F567479-1BB1-4E99-ACEC-F07D4DA8E4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D063428D-6379-48E3-ABF4-C9C5B04C396D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,14 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>ABM</t>
   </si>
   <si>
-    <t>Constructores / Detructores</t>
-  </si>
-  <si>
     <t>Try … Catch</t>
   </si>
   <si>
@@ -55,24 +52,9 @@
     <t>OBSERVACIÓN</t>
   </si>
   <si>
-    <t>Sí
-(Está Implementado)</t>
-  </si>
-  <si>
-    <t>No
-(No está implementado)</t>
-  </si>
-  <si>
-    <t>Observaciones Generales</t>
-  </si>
-  <si>
     <t>Otros</t>
   </si>
   <si>
-    <t>Parcialmente
-(No está completamente implementado o no se encuentra implementado cada vez que es requerido o no funciona de acuerdo a lo solicitado)</t>
-  </si>
-  <si>
     <t>Herencia en Cobro</t>
   </si>
   <si>
@@ -85,32 +67,50 @@
     <t>Evento por valor superior a 10.000</t>
   </si>
   <si>
-    <t>Comportamiento  Grilla 3 con LinQ</t>
-  </si>
-  <si>
-    <t>Comportamiento Grilla 4 con Icomparable</t>
-  </si>
-  <si>
-    <t>Comportamiento Grilla 5 Con LinQ y tipos anónimos</t>
-  </si>
-  <si>
     <t>Clientes</t>
   </si>
   <si>
     <t>Cobros</t>
   </si>
   <si>
-    <t>Comportamiento. Calculo del importe final a pagar en los métodos polimórficos</t>
-  </si>
-  <si>
     <t>Asignación del Cobro al cliente seleccionado en la grilla 1 al crearlo</t>
+  </si>
+  <si>
+    <t>Constructores / Destructores</t>
+  </si>
+  <si>
+    <t>Está Implementado</t>
+  </si>
+  <si>
+    <t>No Implementado</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Parcialmente Implementado*</t>
+  </si>
+  <si>
+    <t>(*) No está completamente implementado o no se encuentra implementado cada vez que es requerido o no funciona de acuerdo a lo solicitado.</t>
+  </si>
+  <si>
+    <t>Comportamiento: Calculo del importe final a pagar en los métodos polimórficos</t>
+  </si>
+  <si>
+    <t>Comportamiento: Grilla 3 con LinQ</t>
+  </si>
+  <si>
+    <t>Comportamiento: Grilla 4 con Icomparable</t>
+  </si>
+  <si>
+    <t>Comportamiento: Grilla 5 Con LinQ y tipos anónimos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,6 +148,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -176,12 +183,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -192,8 +193,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -247,40 +254,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -321,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -331,12 +308,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -349,15 +320,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -367,52 +329,46 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -421,12 +377,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,224 +708,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="25.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="50.625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="20.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="20.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="5" customWidth="1"/>
     <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="24"/>
-    </row>
-    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -968,6 +933,12 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
